--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1371,6 +1371,419 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LR + HyperOpt2Recall</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>{'C': 0.20853519725430852, 'max_iter': 5000.0, 'solver': 0}</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9941106314217772</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.00212225523522589</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.992975216812884, 0.9952460460306705)</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8591149591149592</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.04129235484409705</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(0.8370233924893273, 0.881206525740591)</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2253654577473242</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.06246983844811307</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>(0.19194385698419325, 0.2587870585104551)</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3525944403553269</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.07923667760381331</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>(0.3102025169814391, 0.3949863637292148)</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>0.9696679638843889</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.01192052998323863</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>(0.9632904350819791, 0.9760454926867987)</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>63678.42718195915</v>
+      </c>
+      <c r="T10" t="n">
+        <v>55.75345396995544</v>
+      </c>
+      <c r="U10" t="n">
+        <v>3.981638169288635</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>[2.356300115585327, 4.205404043197632, 4.348062515258789, 4.523339033126831, 3.4414358139038086, 3.39815092086792, 2.762533187866211, 5.695647954940796, 5.259974241256714, 3.825533866882324]</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>{'fit_time': array([3.23491859, 3.94797921, 3.17797327, 2.52549171, 3.83980966,
+       5.60874152, 3.30691528, 4.29036331, 5.21979737, 2.58762026,
+       2.59676313, 4.37618899, 2.4122746 , 3.0519383 , 3.62156367]), 'score_time': array([0.1184628 , 0.11739588, 0.11832166, 0.12354755, 0.12426162,
+       0.11933827, 0.12712145, 0.11686563, 0.12006807, 0.12003779,
+       0.11826563, 0.12078023, 0.11886001, 0.12041044, 0.1163094 ]), 'test_accuracy': array([0.99148555, 0.99585689, 0.99303032, 0.99167852, 0.99594459,
+       0.99613778, 0.99341666, 0.99571637, 0.99613771, 0.99146785,
+       0.99188933, 0.99606755, 0.99108162, 0.99552325, 0.99622549]), 'test_recall': array([0.85858586, 0.85858586, 0.82653061, 0.83673469, 0.92857143,
+       0.83838384, 0.8989899 , 0.85714286, 0.87755102, 0.84693878,
+       0.82828283, 0.81818182, 0.95918367, 0.81632653, 0.83673469]), 'test_precision': array([0.1528777 , 0.27687296, 0.17570499, 0.15185185, 0.28888889,
+       0.28919861, 0.19603524, 0.26751592, 0.29251701, 0.14981949,
+       0.15559772, 0.28222997, 0.15719064, 0.25236593, 0.29181495]), 'test_f1': array([0.25954198, 0.41871921, 0.28980322, 0.25705329, 0.44067797,
+       0.43005181, 0.32188065, 0.40776699, 0.43877551, 0.25460123,
+       0.26198083, 0.41968912, 0.27011494, 0.38554217, 0.43271768]), 'test_roc_auc': array([0.96342334, 0.98056324, 0.95382672, 0.95279327, 0.98331507,
+       0.97524353, 0.97178972, 0.97452524, 0.97910965, 0.9557813 ,
+       0.95308572, 0.97469996, 0.99082471, 0.96525896, 0.97077903])}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RF + HyperOpt2Recall</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{'bootstrap': 1, 'criterion': 0, 'max_depth': 13.0, 'max_features': 0.6663473402229657, 'min_samples_leaf': 0.21, 'min_samples_split': 0.72, 'n_estimators': 350.0}</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9680028969532476</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.001610803305909647</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.967141111068484, 0.9688646828380112)</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.8719645433931148</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.03899631894943844</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(0.8511013646890051, 0.8928277220972245)</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0.04528243953808771</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0009666352181449418</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>(0.044765286026137205, 0.04579959305003821)</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>0.08608448842354503</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.001745069437071905</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>(0.08515086964881102, 0.08701810719827904)</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>0.9731657088087708</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.01110269761799765</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>(0.9672257234270143, 0.9791056941905274)</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>6370.354110240936</v>
+      </c>
+      <c r="T11" t="n">
+        <v>882.3061628341675</v>
+      </c>
+      <c r="U11" t="n">
+        <v>74.03353159427643</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>[73.79999876022339, 73.882075548172, 74.23779702186584, 73.4800455570221, 74.09327149391174, 74.54014348983765, 73.7813012599945, 74.0773413181305, 74.00416088104248, 74.43918061256409]</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>{'fit_time': array([58.71719694, 58.37613153, 58.3169179 , 58.34361076, 58.25768232,
+       58.24689722, 58.40785694, 58.27467108, 58.62128353, 57.92038035,
+       58.35384297, 58.68126082, 58.18358946, 58.28417134, 58.29140711]), 'score_time': array([0.48042607, 0.46439409, 0.46098638, 0.4528718 , 0.44891667,
+       0.45008087, 0.45256114, 0.45095515, 0.44681835, 0.44836569,
+       0.472332  , 0.46214461, 0.45840073, 0.44678664, 0.44412851]), 'test_accuracy': array([0.96536287, 0.96839999, 0.96910167, 0.96978635, 0.96676674,
+       0.96624065, 0.96790843, 0.96782009, 0.96952301, 0.9686101 ,
+       0.96927776, 0.96760999, 0.96467759, 0.96911922, 0.96983901]), 'test_recall': array([0.90909091, 0.85858586, 0.82653061, 0.83673469, 0.92857143,
+       0.87878788, 0.85858586, 0.8877551 , 0.87755102, 0.85714286,
+       0.83838384, 0.86868687, 0.96938776, 0.84693878, 0.83673469]), 'test_precision': array([0.04381694, 0.04543025, 0.04440789, 0.04588696, 0.04602934,
+       0.04354354, 0.0447604 , 0.0455736 , 0.04751381, 0.0452099 ,
+       0.04567969, 0.04483837, 0.04515209, 0.04542967, 0.04596413]), 'test_f1': array([0.08360427, 0.08629442, 0.0842872 , 0.08700265, 0.08771084,
+       0.08297568, 0.08508509, 0.08669656, 0.09014675, 0.08588957,
+       0.08663883, 0.08527516, 0.0862852 , 0.08623377, 0.08714134]), 'test_roc_auc': array([0.97606839, 0.97406925, 0.95388648, 0.97993324, 0.98506713,
+       0.96897496, 0.97890437, 0.98160626, 0.9754102 , 0.96302526,
+       0.96859801, 0.97549853, 0.99662077, 0.95989259, 0.95993019])}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bagging + HyperOpt2Recall</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{'max_features': 0.8982518758334854, 'max_samples': 0.020428082210949768, 'n_estimators': 100.0, 'oob_score': 0}</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9981706898333998</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0002621054240274737</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.9980304624363501, 0.9983109172304496)</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8590943448086307</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.04205530451189154</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(0.836594597213865, 0.8815940924033964)</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0.4861020207717032</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.04256905494005852</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>(0.4633274147471954, 0.5088766267962109)</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>0.61993605101191</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.03966141633343645</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>(0.5987170426820354, 0.6411550593417845)</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>0.9764859996952923</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.01110354448651963</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>(0.970545561235661, 0.9824264381549235)</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>17899.61953115463</v>
+      </c>
+      <c r="T12" t="n">
+        <v>109.410876750946</v>
+      </c>
+      <c r="U12" t="n">
+        <v>8.145259022712708</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>[7.6502909660339355, 7.752744197845459, 8.39333987236023, 8.326745510101318, 8.380397081375122, 8.789525508880615, 8.14861536026001, 7.913754224777222, 7.8745198249816895, 8.222657680511475]</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>{'fit_time': array([5.76672816, 6.04725599, 5.87542844, 5.9772048 , 6.42361999,
+       5.73635817, 6.14954472, 6.47010469, 5.66827846, 5.82141852,
+       6.02340102, 5.87266994, 6.11383891, 6.11776733, 5.53181291]), 'score_time': array([1.29675508, 1.29847455, 1.37317896, 1.38524485, 1.40157628,
+       1.39825296, 1.31261897, 1.1602273 , 1.24565172, 1.24183559,
+       1.30936146, 1.04665279, 1.48632264, 1.399791  , 1.34131455]), 'test_accuracy': array([0.99815667, 0.99819178, 0.99792841, 0.99794596, 0.9984902 ,
+       0.99836733, 0.99845511, 0.9982093 , 0.99826197, 0.99794596,
+       0.99856044, 0.99831467, 0.99826197, 0.99766507, 0.99780552]), 'test_recall': array([0.86868687, 0.88888889, 0.82653061, 0.81632653, 0.90816327,
+       0.82828283, 0.8989899 , 0.86734694, 0.87755102, 0.82653061,
+       0.81818182, 0.82828283, 0.95918367, 0.81632653, 0.85714286]), 'test_precision': array([0.48314607, 0.48888889, 0.44505495, 0.44692737, 0.53614458,
+       0.51898734, 0.53293413, 0.48850575, 0.49710983, 0.44751381,
+       0.55862069, 0.50931677, 0.4973545 , 0.41025641, 0.43076923]), 'test_f1': array([0.62093863, 0.63082437, 0.57857143, 0.57761733, 0.67424242,
+       0.6381323 , 0.66917293, 0.625     , 0.63468635, 0.58064516,
+       0.66393443, 0.63076923, 0.65505226, 0.54607509, 0.57337884]), 'test_roc_auc': array([0.98546071, 0.97354638, 0.96548911, 0.9693297 , 0.98276272,
+       0.97024054, 0.98340287, 0.9858769 , 0.97572522, 0.9564615 ,
+       0.96025553, 0.9892293 , 0.99675769, 0.9739335 , 0.97881832])}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>XGBoost + HyperOpt2Recall</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{'colsample_bytree': 0.818357613486234, 'gamma': 0.9814745859194536, 'learning_rate': 0.016423892819275164, 'max_depth': 7.0, 'n_estimators': 400.0, 'reg_alpha': 0.7883944512255477, 'reg_lambda': 0.015512547171976096, 'subsample': 0.5722640595718869}</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.999252124700008</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0001192198887117392</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(0.9991883416068781, 0.999315907793138)</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8408025836597265</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0429116502431711</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(0.8178446878472443, 0.8637604794722087)</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0.7565066246543236</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.04173383060865513</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>(0.7341788668184022, 0.7788343824902451)</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7953879541042362</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.02993060998284047</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>(0.7793749641190878, 0.8114009440893847)</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>0.9821764482123591</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.008140308854459519</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>(0.9778213520670681, 0.98653154435765)</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>9605.221627473831</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1558.83673119545</v>
+      </c>
+      <c r="U13" t="n">
+        <v>130.2643049478531</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>[130.0565004348755, 129.84158182144165, 129.85218262672424, 130.28761196136475, 130.93318557739258, 130.31831169128418, 129.91489458084106, 129.97407698631287, 131.3589472770691, 130.10575652122498]</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>{'fit_time': array([103.52510715, 104.51572108, 100.42841601, 103.41101241,
+       103.46470714, 103.84854817, 104.17865038, 104.15586853,
+       103.86879659, 102.84928775, 103.61186457, 103.42126656,
+       103.84362245, 102.88612294, 102.19608808]), 'score_time': array([0.55317664, 0.5926125 , 0.53917861, 0.55822802, 0.55406475,
+       0.53721595, 0.55271602, 0.5331676 , 0.61049628, 0.54815292,
+       0.54122448, 0.55167365, 0.54515362, 0.58602643, 0.54923558]), 'test_accuracy': array([0.99929778, 0.99940311, 0.99910465, 0.99919243, 0.99926265,
+       0.99929778, 0.99933289, 0.99905198, 0.99933288, 0.99929777,
+       0.99935044, 0.99919244, 0.9994031 , 0.99901687, 0.9992451 ]), 'test_recall': array([0.85858586, 0.86868687, 0.81632653, 0.79591837, 0.86734694,
+       0.82828283, 0.85858586, 0.85714286, 0.86734694, 0.80612245,
+       0.7979798 , 0.80808081, 0.95918367, 0.81632653, 0.80612245]), 'test_precision': array([0.76576577, 0.80373832, 0.7079646 , 0.75      , 0.74561404,
+       0.78095238, 0.77981651, 0.67741935, 0.77272727, 0.79      ,
+       0.82291667, 0.74766355, 0.75806452, 0.6779661 , 0.76699029]), 'test_f1': array([0.80952381, 0.83495146, 0.75829384, 0.77227723, 0.80188679,
+       0.80392157, 0.81730769, 0.75675676, 0.81730769, 0.7979798 ,
+       0.81025641, 0.77669903, 0.84684685, 0.74074074, 0.78606965]), 'test_roc_auc': array([0.98769078, 0.99220579, 0.96419662, 0.9813474 , 0.98099962,
+       0.98284429, 0.98185556, 0.98666774, 0.98013288, 0.97896627,
+       0.97540056, 0.98587186, 0.99921132, 0.98237296, 0.97288309])}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
